--- a/PRODUTOS/Perfumaria/Perfumaria - Fraldas.xlsx
+++ b/PRODUTOS/Perfumaria/Perfumaria - Fraldas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fralda Descartável Pompom Prot. Baby Xg C/20</t>
+          <t>Fraldas Descartáveis Babysec Ultra Mega G C/ 32un</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 44,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fd26586-23d8-4e6d-bf23-b7ef721228df.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c15f0337-7b87-4884-aba1-70666dde110e.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896061995910</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fralda Descartável Pompom Prot.baby G C/24un</t>
+          <t>Fralda Descartavel Huggies Disney Jumbo Xxg C/22un</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91ef24a7-1426-43bb-bb9c-7737e85a517f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f6477ef-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896007547982</t>
         </is>
       </c>
     </row>
@@ -515,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fralda Descartavel Huggies Disney Jumbo Xg C/22 Unidades</t>
+          <t>Fralda Descartavel Huggies Disney Jumbo G C/24un</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +540,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/13c60080-0d54-41db-9d2d-ed048cecf7fb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c273d4e4-902f-4eda-8407-c7eef62198b2.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896007552467</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fralda Descartável Pompom Prot Derm Xxg C/18</t>
+          <t>Fralda Descartavel Huggies Diney Jumbo M C/28un</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc21db6e-617c-4b58-ad73-38e627e559a5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8073420-cf72-4cb0-b74f-ab53cdd58007.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896007552450</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fralda Descartavel Huggies Disney Jumbo G C/24un</t>
+          <t>Fraldas Descartáveis Babysec Ultra Mega M C/ 38un</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 44,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c273d4e4-902f-4eda-8407-c7eef62198b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6be8d6e5-8dd9-4cb9-8e55-f865e6aedfbf.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896061995903</t>
         </is>
       </c>
     </row>
@@ -596,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fralda Descartável Pompom Prot.baby P C/30un</t>
+          <t>Fralda Descartável Pompom Prot Derm Xxg C/18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +636,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75668de4-1ad4-417f-8541-943193a00388.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc21db6e-617c-4b58-ad73-38e627e559a5.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896012880005</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fralda Descartavel Huggies Disney Jumbo Xxg C/22un</t>
+          <t>Fralda Descartável Pompom Prot.baby G C/24un</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f6477ef-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91ef24a7-1426-43bb-bb9c-7737e85a517f.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896012879986</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fralda Descartável Pampers Conf. S Mega C/30 Xxg</t>
+          <t>Fraldas Descartáveis Babysec Ultra Mega Xg C/ 30un</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 78,99</t>
+          <t>R$ 44,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef7fc9e2-c5f3-409d-a616-f42e11637b39.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/007671eb-df74-4d65-9b6b-46cb177f8ac7.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896061995927</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fralda Descartável Pompom Prot Baby Grandinhos</t>
+          <t>Fralda Descartáveis Babysec Ultra Mega P C/ 42un</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 44,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3423e1d-6fab-42a5-84e1-78ec84710b87.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e4ae119-fa66-4761-bf76-f5a85ac6bb89.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896061995910</t>
         </is>
       </c>
     </row>
@@ -704,449 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fralda Descartavel Huggies Diney Jumbo M C/28un</t>
+          <t>Fralda Descartável Pompom Prot. Baby Xg C/20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8073420-cf72-4cb0-b74f-ab53cdd58007.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Fralda Descartável Pampers Supersec Pctao G C/26</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>R$ 36,99</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a212e3dc-2125-4536-ba12-7557ffd6ad9f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Fralda Descartável Pampers Conf. S Mega C/38 G</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>R$ 78,99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/96539196-c076-42b1-98fa-155236e52f53.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Fralda Descartavel Feroz Confort M 60un Basic Mega</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>R$ 36,93</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e497273d-1ddf-4fb7-bf63-13961787bb66.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Fralda Descartável Pampers Supersec Pctao P C/34</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>R$ 36,99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4ab4d06-d1e0-4890-a089-ec813597a0f0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Fralda Descartável Pampers Conf. S Mega C/50 P</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>R$ 78,99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fda317c4-274d-420d-82ad-3653badeb1de.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Fralda Descartável Tom And Jerry Mega G L36p32</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>R$ 36,99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8139277-aeda-493f-aa2c-7e04b6f90bbf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Fr Pampers Confort Sec Bag P C/72</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>R$ 129,99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a14893b-f5e0-4994-886e-9bbf29298bb6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Fralda Descartável Pampers Conf. S Mega C/44 M</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 78,99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d2d2055-68b1-4730-88cf-eb0e037184c2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Fr Pampers Confort Sec Bag G C/60</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 129,99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0ab03d28-2ff4-4d9b-9ec6-d28f5f23a92c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Fr Pampers Confort Sec Bag M C/70</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 129,99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c5cd3f2-4bd1-4d8a-8aa8-d9f371db85c7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Fralda Descartavel Feroz Confort M 50un Basic Mega</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>R$ 36,93</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Fralda Descartavel Feroz Confort Xg 30un Basic Mega</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>R$ 36,93</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Fraldas Descartáveis Babysec Ultra Mega G C/ 32un</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>R$ 44,99</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c15f0337-7b87-4884-aba1-70666dde110e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Fraldas Descartáveis Babysec Ultra Mega M C/ 38un</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>R$ 44,99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6be8d6e5-8dd9-4cb9-8e55-f865e6aedfbf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Fralda Descartáveis Babysec Ultra Mega P C/ 42un</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>R$ 44,99</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e4ae119-fa66-4761-bf76-f5a85ac6bb89.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Fraldas</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Fraldas Descartáveis Babysec Ultra Mega Xg C/ 30un</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>R$ 44,99</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/007671eb-df74-4d65-9b6b-46cb177f8ac7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fd26586-23d8-4e6d-bf23-b7ef721228df.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896012880135</t>
         </is>
       </c>
     </row>
